--- a/fhir/core/2.2.0/CodeSystem-days-of-week-dk-supplement.xlsx
+++ b/fhir/core/2.2.0/CodeSystem-days-of-week-dk-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:07:34+02:00</t>
+    <t>2023-05-04T21:35:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,43 +141,22 @@
     <t>mon</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
     <t>tue</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
     <t>wed</t>
   </si>
   <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
     <t>thu</t>
   </si>
   <si>
-    <t>Thursday</t>
-  </si>
-  <si>
     <t>fri</t>
   </si>
   <si>
-    <t>Friday</t>
-  </si>
-  <si>
     <t>sat</t>
   </si>
   <si>
-    <t>Saturday</t>
-  </si>
-  <si>
     <t>sun</t>
-  </si>
-  <si>
-    <t>Sunday</t>
   </si>
 </sst>
 </file>
@@ -515,96 +494,68 @@
       <c r="B2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/fhir/core/2.2.0/CodeSystem-days-of-week-dk-supplement.xlsx
+++ b/fhir/core/2.2.0/CodeSystem-days-of-week-dk-supplement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:35:52+02:00</t>
+    <t>2023-05-05T01:37:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
